--- a/Rquadrado,ajustado,correls (regr multipla).xlsx
+++ b/Rquadrado,ajustado,correls (regr multipla).xlsx
@@ -1,40 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\Curso Econometria no Excel\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F11B5-6D4B-414C-B9FD-D8FAC91618FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
-    <sheet name="R2, R2ajustado e correls (resol" sheetId="2" r:id="rId2"/>
+    <sheet name="R2, R2ajustado e correls (resol" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="R2,R2ajust e correl (exercicio)" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>rodri</author>
   </authors>
   <commentList>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +267,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -310,7 +328,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -365,7 +389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CaixaDeTexto 3"/>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -448,7 +478,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -503,7 +539,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -547,8 +589,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Dados óleo calefação"/>
       <sheetName val="MQO"/>
@@ -841,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1038,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B11:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1203,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B11:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
